--- a/data/2021经典满分.xlsx
+++ b/data/2021经典满分.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25310"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A929DFC6-AAE1-4677-B6D7-0AF08E4A8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F56190-05A8-4D36-9E32-C4FC0294E7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,21 +59,22 @@
   </si>
   <si>
     <t>能力题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金匮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金匮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,13 +536,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -549,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -563,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -577,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -591,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>27.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -605,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -625,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>26.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -639,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -653,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -661,13 +662,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -675,13 +676,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -689,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -709,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
